--- a/代码/ACC_Database.xlsx
+++ b/代码/ACC_Database.xlsx
@@ -45,7 +45,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -68,6 +68,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,8 +407,8 @@
   </sheetPr>
   <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -447,10 +451,31 @@
           <t>FeeRate</t>
         </is>
       </c>
-      <c r="F1" s="4" t="n"/>
-      <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
-      <c r="I1" s="4" t="n"/>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Temp_highLimit</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>Temp_lowLimit</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>Feerate_H</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>Feerate_M</t>
+        </is>
+      </c>
+      <c r="J1" s="4" t="inlineStr">
+        <is>
+          <t>Feerate_L</t>
+        </is>
+      </c>
       <c r="N1" s="4" t="n"/>
     </row>
     <row r="2">
@@ -469,10 +494,21 @@
       <c r="E2" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="n"/>
-      <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="n"/>
+      <c r="F2" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J2" s="9" t="n">
+        <v>0.2</v>
+      </c>
       <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
